--- a/Reisler_Req Tracability Matrix.xlsx
+++ b/Reisler_Req Tracability Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmi\Documents\ETSU\Spring 2024\Software Engineering 1\End of Semester Project\East TN Mental Health Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1C770C-D076-4BC6-B99D-062D09B2FDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16446E3C-E5EC-4C63-A151-9E2E54488E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7718B884-5B70-40BF-8160-6AB1E3549CF5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7718B884-5B70-40BF-8160-6AB1E3549CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,146 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+  <si>
+    <t>Requirement #</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.a.0</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>2.a.0</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>3.a.0</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
+  </si>
+  <si>
+    <t>9.0.0</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>13.0.0</t>
+  </si>
+  <si>
+    <t>14.0.0</t>
+  </si>
+  <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>16.0.0</t>
+  </si>
+  <si>
+    <t>17.0.0</t>
+  </si>
+  <si>
+    <t>18.0.0</t>
+  </si>
+  <si>
+    <t>19.0.0</t>
+  </si>
+  <si>
+    <t>20.0.0</t>
+  </si>
+  <si>
+    <t>21.0.0</t>
+  </si>
+  <si>
+    <t>22.0.0</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>FUll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial </t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Patial</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,8 +202,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +539,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA605AF-72E9-49FE-94EA-C86D6879867A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reisler_Req Tracability Matrix.xlsx
+++ b/Reisler_Req Tracability Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmi\Documents\ETSU\Spring 2024\Software Engineering 1\End of Semester Project\East TN Mental Health Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16446E3C-E5EC-4C63-A151-9E2E54488E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF63975-CB9E-468A-9E55-68DA5B268804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7718B884-5B70-40BF-8160-6AB1E3549CF5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7718B884-5B70-40BF-8160-6AB1E3549CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="59">
   <si>
     <t>Requirement #</t>
   </si>
@@ -159,6 +159,60 @@
   </si>
   <si>
     <t>Patial</t>
+  </si>
+  <si>
+    <t>23.0.0</t>
+  </si>
+  <si>
+    <t>24.0.0</t>
+  </si>
+  <si>
+    <t>25.0.0</t>
+  </si>
+  <si>
+    <t>26.0.0</t>
+  </si>
+  <si>
+    <t>27.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How would you test for this? Maybe this didn’t fulfill SMART </t>
+  </si>
+  <si>
+    <t>28.0.0</t>
+  </si>
+  <si>
+    <t>29.0.0</t>
+  </si>
+  <si>
+    <t>30.0.0</t>
+  </si>
+  <si>
+    <t>31.0.0</t>
+  </si>
+  <si>
+    <t>32.0.0</t>
+  </si>
+  <si>
+    <t>33.0.0</t>
+  </si>
+  <si>
+    <t>34.0.0</t>
+  </si>
+  <si>
+    <t>35.0.0</t>
+  </si>
+  <si>
+    <t>36.0.0</t>
+  </si>
+  <si>
+    <t>37.0.0</t>
+  </si>
+  <si>
+    <t>38.0.0</t>
+  </si>
+  <si>
+    <t>39.0.0</t>
   </si>
 </sst>
 </file>
@@ -202,9 +256,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA605AF-72E9-49FE-94EA-C86D6879867A}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,7 +827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -786,7 +841,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -794,7 +849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -820,7 +875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -834,12 +889,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -865,12 +920,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -887,7 +942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -913,14 +968,314 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
